--- a/数据整理/stocks/A股/科创板/688208-道通科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688208-道通科技.xlsx
@@ -451,295 +451,395 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1683</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000924</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2937</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6839</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧科创主题3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6034</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2235</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>007579</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>宝盈先进制造灵活配置混合C</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>91.38</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>4.84</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000924</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>宝盈先进制造灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>91.38</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002707</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>7.34</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002885</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007581</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>宝盈鸿利收益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>93.35</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>213001</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>宝盈鸿利收益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>93.35</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>501081</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧科创主题3年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>79.88</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008227</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>宝盈研究精选混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>90.72</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008228</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>宝盈研究精选混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>90.72</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -749,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +870,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -790,26 +900,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004266</t>
+          <t>000404</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+          <t>易方达新兴成长灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>46.94</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8399</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -818,26 +938,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010754</t>
+          <t>163412</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+          <t>兴全轻资产混合(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>69.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0166</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -846,26 +976,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004212</t>
+          <t>506006</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中融量化智选混合A</t>
+          <t>汇添富科创板2年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.40</t>
+          <t>31.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>78.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7166</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004783</t>
+          <t>010391</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中融量化智选混合C</t>
+          <t>易方达战略新兴产业股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.40</t>
+          <t>95.87</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>34.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1792</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -912,15 +1062,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>16.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>79.65</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.88</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4761</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -930,25 +1090,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005977</t>
+          <t>010460</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中信保诚至兴灵活配置混合A</t>
+          <t>兴业研究精选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2006</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -958,26 +1128,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005978</t>
+          <t>010602</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中信保诚至兴灵活配置混合C</t>
+          <t>长城均衡优选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>43.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002657</t>
+          <t>002707</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>招商安裕灵活配置混合A</t>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>21.81</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002658</t>
+          <t>008456</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>招商安裕灵活配置混合C</t>
+          <t>招商瑞阳股债配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>21.81</t>
+          <t>10.01</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006377</t>
+          <t>004932</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>广发趋势动力灵活配置混合</t>
+          <t>招商丰拓灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>84.88</t>
+          <t>9.29</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1078</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1070,25 +1280,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>000404</t>
+          <t>002657</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>易方达新兴成长灵活配置混合</t>
+          <t>招商安裕灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.10</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006366</t>
+          <t>010392</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>兴业安保优选混合</t>
+          <t>易方达战略新兴产业股票C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>91.19</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>34.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006573</t>
+          <t>008457</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>人保行业轮动混合A</t>
+          <t>招商瑞阳股债配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>83.27</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006574</t>
+          <t>006366</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>人保行业轮动混合C</t>
+          <t>兴业安保优选混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>83.27</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010391</t>
+          <t>004933</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>易方达战略新兴产业股票A</t>
+          <t>招商丰拓灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>34.87</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010392</t>
+          <t>005041</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>易方达战略新兴产业股票C</t>
+          <t>人保研究精选混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>34.87</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010460</t>
+          <t>007903</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>兴业研究精选混合</t>
+          <t>长城量化小盘股票</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>88.06</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010602</t>
+          <t>001983</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>长城均衡优选混合</t>
+          <t>中邮低碳经济灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>43.02</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
+          <t>83.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>506006</t>
+          <t>006573</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>汇添富科创板2年定期开放混合</t>
+          <t>人保行业轮动混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>78.78</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>001983</t>
+          <t>005977</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中邮低碳经济灵活配置混合</t>
+          <t>中信保诚至兴灵活配置混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>83.28</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>3</v>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>005041</t>
+          <t>004266</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>人保研究精选混合A</t>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>84.34</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>6</v>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>163412</t>
+          <t>006377</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>兴全轻资产混合(LOF)</t>
+          <t>广发趋势动力灵活配置混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>84.34</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>6</v>
+          <t>84.88</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>002707</t>
+          <t>002658</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+          <t>招商安裕灵活配置混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>9.73</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>007903</t>
+          <t>005978</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>长城量化小盘股票</t>
+          <t>中信保诚至兴灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>83.79</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>6</v>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>008456</t>
+          <t>004212</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>招商瑞阳股债配置混合A</t>
+          <t>中融量化智选混合A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>22.38</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>8</v>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>008457</t>
+          <t>010754</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>招商瑞阳股债配置混合C</t>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>22.38</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>8</v>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -1518,26 +1888,30 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>004932</t>
+          <t>004783</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>招商丰拓灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>23.48</t>
-        </is>
-      </c>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>10</v>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -1546,26 +1920,30 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>004933</t>
+          <t>006574</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>招商丰拓灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>23.48</t>
-        </is>
-      </c>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>10</v>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688208-道通科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688208-道通科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1896,7 +1897,6 @@
           <t>中融量化智选混合C</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>91.40</t>
@@ -1928,7 +1928,6 @@
           <t>人保行业轮动混合C</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>83.27</t>
@@ -1944,6 +1943,1506 @@
       </c>
       <c r="H29" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.5729</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5885</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8008</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2365</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>42.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6766</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4432</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1714</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7823</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5019</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4574</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4569</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4345</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4200</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>44.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3735</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006769</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城研究精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3443</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2968</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2397</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2265</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2175</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1885</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>14.34</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010181</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010182</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>70.31</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>44.68</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688208-道通科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688208-道通科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3448,4 +3449,1238 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>171.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.0260</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>61.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1266</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>47.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9147</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5402</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8149</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2672</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>39.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0307</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7655</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7174</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6903</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6378</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6057</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4413</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3081</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2395</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1905</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1749</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004341</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>农银汇理尖端科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010181</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>40.53</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010182</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688208-道通科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688208-道通科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4683,4 +4684,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.449999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688208-道通科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688208-道通科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4692,7 +4693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4703,17 +4704,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4723,14 +4744,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>26.6</v>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7581</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -4739,14 +4782,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>38</v>
-      </c>
-      <c r="D3" t="n">
-        <v>25.92</v>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2759</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -4755,14 +4820,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>28</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.449999999999999</v>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7128</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4771,13 +4858,1443 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4868</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013426</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>66.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>63.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3851</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7255</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>64.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6476</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>59.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5745</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>53.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5511</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>37.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2954</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>34.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7934</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7746</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7354</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>39.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>62.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7142</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6682</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4963</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4184</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3692</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3576</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3460</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013427</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>63.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3177</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3127</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3050</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011455</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2977</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2745</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2734</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2368</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.06</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2221</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1664</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1510</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004341</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>农银汇理尖端科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>42.37</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011456</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.449999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>5.28</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688208-道通科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688208-道通科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6193,7 +6194,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6204,17 +6205,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6224,14 +6245,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>38</v>
-      </c>
-      <c r="D2" t="n">
-        <v>31.08</v>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9256</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -6240,14 +6283,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>31</v>
-      </c>
-      <c r="D3" t="n">
-        <v>26.6</v>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1637</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -6256,14 +6321,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>38</v>
-      </c>
-      <c r="D4" t="n">
-        <v>25.92</v>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -6272,14 +6359,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>28</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.449999999999999</v>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -6288,13 +6397,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>31.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>38</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25.92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>28</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.449999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>5.28</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688208-道通科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688208-道通科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6478,7 +6479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6489,17 +6490,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6509,14 +6530,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.28</v>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -6525,14 +6568,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>38</v>
-      </c>
-      <c r="D3" t="n">
-        <v>31.08</v>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -6541,14 +6606,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>014871</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D4" t="n">
-        <v>26.6</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="5">
@@ -6557,14 +6728,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>25.92</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="6">
@@ -6573,14 +6744,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>9.449999999999999</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="7">
@@ -6589,13 +6760,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>28</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.449999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>5.28</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688208-道通科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688208-道通科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1.28</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>31.08</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D5" t="n">
-        <v>26.6</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
-        <v>25.92</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D7" t="n">
-        <v>9.449999999999999</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>28</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.449999999999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>9</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>5.28</v>
       </c>
     </row>
@@ -600,6 +617,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014871</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -769,7 +918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1053,7 +1202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2553,7 +2702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3787,7 +3936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5287,7 +5436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6393,7 +6542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688208-道通科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688208-道通科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
         <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.09</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.28</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>31.08</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>26.6</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
-        <v>25.92</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D8" t="n">
-        <v>9.449999999999999</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,428 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>28</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9.449999999999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>9</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>5.28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1683</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000924</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2937</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6839</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧科创主题3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6034</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2235</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007579</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1032,590 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8233</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5679</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安品质甄选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2331</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013681</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安品质甄选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014509</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014508</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015112</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长盛精选行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>53.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015113</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长盛精选行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>53.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015182</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合D</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014871</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合 O</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015181</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -748,7 +1747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -918,7 +1917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1202,7 +2201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2702,7 +3701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3936,7 +4935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5436,7 +6435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6540,402 +7539,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>213001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>宝盈鸿利收益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>44.16</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.35</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.1683</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000924</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>宝盈先进制造灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>26.73</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.38</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.2937</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008227</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>宝盈研究精选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>14.90</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.72</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6839</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501081</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧科创主题3年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>16.95</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>79.88</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.6034</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008228</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>宝盈研究精选混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.72</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2235</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002707</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.34</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1417</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007581</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>宝盈鸿利收益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.35</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0992</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002885</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0418</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007579</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>宝盈先进制造灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.38</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0232</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>